--- a/Teams/Ipswich Town_stats.xlsx
+++ b/Teams/Ipswich Town_stats.xlsx
@@ -8,15 +8,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Matches" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StandardStats" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ShootingStats" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PassingStats" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PassTypes" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GoalShotCreation" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DefensiveActions" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Standard Stats" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Shooting Stats" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Passing Stats" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pass Types" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Goal &amp; Shot Creation" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Defensive Actions" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Possession" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PlayingTime" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MiscStats" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Playing Time" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Miscellaneous Stats" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4356,7 +4356,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>25-067</t>
+          <t>25-068</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -4437,7 +4437,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>22-040</t>
+          <t>22-041</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -4518,7 +4518,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>26-016</t>
+          <t>26-017</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -4599,7 +4599,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>21-141</t>
+          <t>21-142</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -4680,7 +4680,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>33-191</t>
+          <t>33-192</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -4761,7 +4761,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>24-189</t>
+          <t>24-190</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -4842,7 +4842,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>25-222</t>
+          <t>25-223</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -4923,7 +4923,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>26-133</t>
+          <t>26-134</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -5004,7 +5004,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>29-108</t>
+          <t>29-109</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -5085,7 +5085,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>27-126</t>
+          <t>27-127</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -5166,7 +5166,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>29-177</t>
+          <t>29-178</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -5247,7 +5247,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>30-117</t>
+          <t>30-118</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -5328,7 +5328,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>26-150</t>
+          <t>26-151</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -5409,7 +5409,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>29-150</t>
+          <t>29-151</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -5490,7 +5490,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>25-055</t>
+          <t>25-056</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -5571,7 +5571,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>24-117</t>
+          <t>24-118</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -5652,7 +5652,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>28-032</t>
+          <t>28-033</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -5733,7 +5733,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>29-131</t>
+          <t>29-132</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -5814,7 +5814,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>23-040</t>
+          <t>23-041</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -5895,7 +5895,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>28-222</t>
+          <t>28-223</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -5976,7 +5976,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>26-349</t>
+          <t>26-350</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -6057,7 +6057,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>24-018</t>
+          <t>24-019</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -6138,7 +6138,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>21-056</t>
+          <t>21-057</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -6219,7 +6219,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>27-323</t>
+          <t>27-324</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -6300,7 +6300,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>32-176</t>
+          <t>32-177</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -6381,7 +6381,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>27-064</t>
+          <t>27-065</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -6462,7 +6462,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>26-270</t>
+          <t>26-271</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -6533,7 +6533,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>eng ENG</t>
+          <t>sct SCO</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -6543,7 +6543,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>26-033</t>
+          <t>26-034</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -6624,7 +6624,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>32-016</t>
+          <t>32-017</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -6705,7 +6705,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>23-019</t>
+          <t>23-020</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -6786,7 +6786,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>29-024</t>
+          <t>29-025</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -6865,7 +6865,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>27-201</t>
+          <t>27-202</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -7108,10 +7108,14 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 4_level_0</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Playing Time</t>
         </is>
       </c>
-      <c r="G1" s="1" t="n"/>
       <c r="H1" s="1" t="n"/>
       <c r="I1" s="1" t="n"/>
       <c r="J1" s="1" t="inlineStr">
@@ -7355,7 +7359,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>25-067</t>
+          <t>25-068</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -7472,7 +7476,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>22-040</t>
+          <t>22-041</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -7589,7 +7593,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>26-016</t>
+          <t>26-017</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -7706,7 +7710,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>21-141</t>
+          <t>21-142</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -7823,7 +7827,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>33-191</t>
+          <t>33-192</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -7940,7 +7944,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>24-189</t>
+          <t>24-190</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -8057,7 +8061,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>25-222</t>
+          <t>25-223</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -8174,7 +8178,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>26-133</t>
+          <t>26-134</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -8291,7 +8295,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>29-108</t>
+          <t>29-109</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -8408,7 +8412,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>27-126</t>
+          <t>27-127</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -8525,7 +8529,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>29-177</t>
+          <t>29-178</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -8642,7 +8646,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>30-117</t>
+          <t>30-118</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -8759,7 +8763,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>26-150</t>
+          <t>26-151</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -8876,7 +8880,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>29-150</t>
+          <t>29-151</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -8993,7 +8997,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>25-055</t>
+          <t>25-056</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -9110,7 +9114,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>24-117</t>
+          <t>24-118</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -9227,7 +9231,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>28-032</t>
+          <t>28-033</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -9344,7 +9348,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>29-131</t>
+          <t>29-132</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -9461,7 +9465,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>23-040</t>
+          <t>23-041</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -9578,7 +9582,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>28-222</t>
+          <t>28-223</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -9695,7 +9699,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>26-349</t>
+          <t>26-350</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -9812,7 +9816,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>24-018</t>
+          <t>24-019</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -9929,7 +9933,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>21-056</t>
+          <t>21-057</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -10046,7 +10050,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>27-323</t>
+          <t>27-324</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -10163,7 +10167,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>32-176</t>
+          <t>32-177</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -10280,7 +10284,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>27-064</t>
+          <t>27-065</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -10397,7 +10401,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>26-270</t>
+          <t>26-271</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -10504,7 +10508,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>eng ENG</t>
+          <t>sct SCO</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -10514,7 +10518,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>26-033</t>
+          <t>26-034</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -10631,7 +10635,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>32-016</t>
+          <t>32-017</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -10748,7 +10752,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>23-019</t>
+          <t>23-020</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -10865,7 +10869,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>29-024</t>
+          <t>29-025</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -10982,7 +10986,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>27-201</t>
+          <t>27-202</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -11099,7 +11103,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>22-186</t>
+          <t>22-187</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -11354,9 +11358,9 @@
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="Y1:AH1"/>
-    <mergeCell ref="F1:I1"/>
     <mergeCell ref="R1:U1"/>
     <mergeCell ref="J1:Q1"/>
+    <mergeCell ref="G1:I1"/>
     <mergeCell ref="V1:X1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -11574,7 +11578,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>25-067</t>
+          <t>25-068</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -11658,7 +11662,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>22-040</t>
+          <t>22-041</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -11742,7 +11746,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>26-016</t>
+          <t>26-017</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -11826,7 +11830,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>21-141</t>
+          <t>21-142</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -11910,7 +11914,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>33-191</t>
+          <t>33-192</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -11994,7 +11998,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>24-189</t>
+          <t>24-190</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -12078,7 +12082,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>25-222</t>
+          <t>25-223</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -12162,7 +12166,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>26-133</t>
+          <t>26-134</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -12236,7 +12240,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>29-108</t>
+          <t>29-109</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -12320,7 +12324,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>27-126</t>
+          <t>27-127</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -12402,7 +12406,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>29-177</t>
+          <t>29-178</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -12486,7 +12490,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>30-117</t>
+          <t>30-118</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -12570,7 +12574,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>26-150</t>
+          <t>26-151</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -12652,7 +12656,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>29-150</t>
+          <t>29-151</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -12736,7 +12740,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>25-055</t>
+          <t>25-056</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -12820,7 +12824,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>24-117</t>
+          <t>24-118</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -12904,7 +12908,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>28-032</t>
+          <t>28-033</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -12988,7 +12992,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>29-131</t>
+          <t>29-132</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -13062,7 +13066,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>23-040</t>
+          <t>23-041</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -13146,7 +13150,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>28-222</t>
+          <t>28-223</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -13220,7 +13224,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>26-349</t>
+          <t>26-350</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -13304,7 +13308,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>24-018</t>
+          <t>24-019</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -13388,7 +13392,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>21-056</t>
+          <t>21-057</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -13472,7 +13476,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>27-323</t>
+          <t>27-324</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -13546,7 +13550,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>32-176</t>
+          <t>32-177</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -13620,7 +13624,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>27-064</t>
+          <t>27-065</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -13694,7 +13698,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>26-270</t>
+          <t>26-271</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -13768,7 +13772,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>eng ENG</t>
+          <t>sct SCO</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -13778,7 +13782,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>26-033</t>
+          <t>26-034</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -13862,7 +13866,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>32-016</t>
+          <t>32-017</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -13936,7 +13940,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>23-019</t>
+          <t>23-020</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -14018,7 +14022,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>29-024</t>
+          <t>29-025</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -14092,7 +14096,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>27-201</t>
+          <t>27-202</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -14585,7 +14589,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>25-067</t>
+          <t>25-068</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -14687,7 +14691,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>22-040</t>
+          <t>22-041</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -14789,7 +14793,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>26-016</t>
+          <t>26-017</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -14891,7 +14895,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>21-141</t>
+          <t>21-142</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -14993,7 +14997,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>33-191</t>
+          <t>33-192</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -15095,7 +15099,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>24-189</t>
+          <t>24-190</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -15197,7 +15201,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>25-222</t>
+          <t>25-223</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -15299,7 +15303,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>26-133</t>
+          <t>26-134</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -15401,7 +15405,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>29-108</t>
+          <t>29-109</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -15503,7 +15507,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>27-126</t>
+          <t>27-127</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -15605,7 +15609,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>29-177</t>
+          <t>29-178</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -15707,7 +15711,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>30-117</t>
+          <t>30-118</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -15809,7 +15813,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>26-150</t>
+          <t>26-151</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -15911,7 +15915,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>29-150</t>
+          <t>29-151</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -16013,7 +16017,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>25-055</t>
+          <t>25-056</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -16115,7 +16119,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>24-117</t>
+          <t>24-118</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -16217,7 +16221,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>28-032</t>
+          <t>28-033</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -16319,7 +16323,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>29-131</t>
+          <t>29-132</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -16421,7 +16425,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>23-040</t>
+          <t>23-041</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -16523,7 +16527,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>28-222</t>
+          <t>28-223</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -16625,7 +16629,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>26-349</t>
+          <t>26-350</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -16727,7 +16731,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>24-018</t>
+          <t>24-019</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -16829,7 +16833,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>21-056</t>
+          <t>21-057</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -16931,7 +16935,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>27-323</t>
+          <t>27-324</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -17033,7 +17037,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>32-176</t>
+          <t>32-177</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -17135,7 +17139,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>27-064</t>
+          <t>27-065</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -17235,7 +17239,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>26-270</t>
+          <t>26-271</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -17327,7 +17331,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>eng ENG</t>
+          <t>sct SCO</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -17337,7 +17341,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>26-033</t>
+          <t>26-034</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -17439,7 +17443,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>32-016</t>
+          <t>32-017</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -17541,7 +17545,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>23-019</t>
+          <t>23-020</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -17641,7 +17645,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>29-024</t>
+          <t>29-025</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -17743,7 +17747,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>27-201</t>
+          <t>27-202</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -18219,7 +18223,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>25-067</t>
+          <t>25-068</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -18297,7 +18301,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>22-040</t>
+          <t>22-041</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -18375,7 +18379,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>26-016</t>
+          <t>26-017</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -18453,7 +18457,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>21-141</t>
+          <t>21-142</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -18531,7 +18535,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>33-191</t>
+          <t>33-192</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -18609,7 +18613,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>24-189</t>
+          <t>24-190</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -18687,7 +18691,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>25-222</t>
+          <t>25-223</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -18765,7 +18769,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>26-133</t>
+          <t>26-134</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -18843,7 +18847,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>29-108</t>
+          <t>29-109</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -18921,7 +18925,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>27-126</t>
+          <t>27-127</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -18999,7 +19003,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>29-177</t>
+          <t>29-178</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -19077,7 +19081,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>30-117</t>
+          <t>30-118</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -19155,7 +19159,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>26-150</t>
+          <t>26-151</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -19233,7 +19237,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>29-150</t>
+          <t>29-151</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -19311,7 +19315,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>25-055</t>
+          <t>25-056</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -19389,7 +19393,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>24-117</t>
+          <t>24-118</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -19467,7 +19471,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>28-032</t>
+          <t>28-033</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -19545,7 +19549,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>29-131</t>
+          <t>29-132</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -19623,7 +19627,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>23-040</t>
+          <t>23-041</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -19701,7 +19705,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>28-222</t>
+          <t>28-223</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -19779,7 +19783,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>26-349</t>
+          <t>26-350</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -19857,7 +19861,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>24-018</t>
+          <t>24-019</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -19935,7 +19939,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>21-056</t>
+          <t>21-057</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -20013,7 +20017,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>27-323</t>
+          <t>27-324</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -20091,7 +20095,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>32-176</t>
+          <t>32-177</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -20169,7 +20173,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>27-064</t>
+          <t>27-065</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -20247,7 +20251,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>26-270</t>
+          <t>26-271</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -20315,7 +20319,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>eng ENG</t>
+          <t>sct SCO</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -20325,7 +20329,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>26-033</t>
+          <t>26-034</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -20403,7 +20407,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>32-016</t>
+          <t>32-017</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -20481,7 +20485,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>23-019</t>
+          <t>23-020</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -20559,7 +20563,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>29-024</t>
+          <t>29-025</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -20637,7 +20641,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>27-201</t>
+          <t>27-202</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -21049,7 +21053,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>25-067</t>
+          <t>25-068</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -21130,7 +21134,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>22-040</t>
+          <t>22-041</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -21211,7 +21215,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>26-016</t>
+          <t>26-017</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -21292,7 +21296,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>21-141</t>
+          <t>21-142</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -21373,7 +21377,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>33-191</t>
+          <t>33-192</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -21454,7 +21458,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>24-189</t>
+          <t>24-190</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -21535,7 +21539,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>25-222</t>
+          <t>25-223</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -21616,7 +21620,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>26-133</t>
+          <t>26-134</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -21697,7 +21701,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>29-108</t>
+          <t>29-109</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -21778,7 +21782,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>27-126</t>
+          <t>27-127</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -21859,7 +21863,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>29-177</t>
+          <t>29-178</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -21940,7 +21944,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>30-117</t>
+          <t>30-118</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -22021,7 +22025,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>26-150</t>
+          <t>26-151</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -22102,7 +22106,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>29-150</t>
+          <t>29-151</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -22183,7 +22187,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>25-055</t>
+          <t>25-056</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -22264,7 +22268,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>24-117</t>
+          <t>24-118</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -22345,7 +22349,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>28-032</t>
+          <t>28-033</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -22426,7 +22430,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>29-131</t>
+          <t>29-132</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -22507,7 +22511,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>23-040</t>
+          <t>23-041</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -22588,7 +22592,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>28-222</t>
+          <t>28-223</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -22669,7 +22673,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>26-349</t>
+          <t>26-350</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -22750,7 +22754,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>24-018</t>
+          <t>24-019</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -22831,7 +22835,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>21-056</t>
+          <t>21-057</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -22912,7 +22916,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>27-323</t>
+          <t>27-324</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -22993,7 +22997,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>32-176</t>
+          <t>32-177</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -23074,7 +23078,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>27-064</t>
+          <t>27-065</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -23155,7 +23159,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>26-270</t>
+          <t>26-271</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -23226,7 +23230,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>eng ENG</t>
+          <t>sct SCO</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -23236,7 +23240,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>26-033</t>
+          <t>26-034</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -23317,7 +23321,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>32-016</t>
+          <t>32-017</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -23398,7 +23402,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>23-019</t>
+          <t>23-020</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -23479,7 +23483,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>29-024</t>
+          <t>29-025</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -23560,7 +23564,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>27-201</t>
+          <t>27-202</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -23994,7 +23998,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>25-067</t>
+          <t>25-068</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -24075,7 +24079,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>22-040</t>
+          <t>22-041</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -24156,7 +24160,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>26-016</t>
+          <t>26-017</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -24237,7 +24241,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>21-141</t>
+          <t>21-142</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -24318,7 +24322,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>33-191</t>
+          <t>33-192</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -24399,7 +24403,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>24-189</t>
+          <t>24-190</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -24480,7 +24484,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>25-222</t>
+          <t>25-223</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -24561,7 +24565,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>26-133</t>
+          <t>26-134</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -24642,7 +24646,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>29-108</t>
+          <t>29-109</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -24723,7 +24727,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>27-126</t>
+          <t>27-127</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -24804,7 +24808,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>29-177</t>
+          <t>29-178</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -24885,7 +24889,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>30-117</t>
+          <t>30-118</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -24966,7 +24970,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>26-150</t>
+          <t>26-151</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -25047,7 +25051,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>29-150</t>
+          <t>29-151</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -25128,7 +25132,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>25-055</t>
+          <t>25-056</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -25209,7 +25213,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>24-117</t>
+          <t>24-118</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -25290,7 +25294,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>28-032</t>
+          <t>28-033</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -25371,7 +25375,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>29-131</t>
+          <t>29-132</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -25452,7 +25456,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>23-040</t>
+          <t>23-041</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -25533,7 +25537,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>28-222</t>
+          <t>28-223</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -25612,7 +25616,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>26-349</t>
+          <t>26-350</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -25693,7 +25697,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>24-018</t>
+          <t>24-019</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -25774,7 +25778,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>21-056</t>
+          <t>21-057</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -25855,7 +25859,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>27-323</t>
+          <t>27-324</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -25936,7 +25940,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>32-176</t>
+          <t>32-177</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -26017,7 +26021,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>27-064</t>
+          <t>27-065</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -26096,7 +26100,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>26-270</t>
+          <t>26-271</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -26167,7 +26171,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>eng ENG</t>
+          <t>sct SCO</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -26177,7 +26181,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>26-033</t>
+          <t>26-034</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -26258,7 +26262,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>32-016</t>
+          <t>32-017</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -26339,7 +26343,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>23-019</t>
+          <t>23-020</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -26420,7 +26424,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>29-024</t>
+          <t>29-025</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -26501,7 +26505,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>27-201</t>
+          <t>27-202</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -26956,7 +26960,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>25-067</t>
+          <t>25-068</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -27055,7 +27059,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>22-040</t>
+          <t>22-041</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -27154,7 +27158,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>26-016</t>
+          <t>26-017</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -27253,7 +27257,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>21-141</t>
+          <t>21-142</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -27352,7 +27356,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>33-191</t>
+          <t>33-192</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -27451,7 +27455,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>24-189</t>
+          <t>24-190</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -27550,7 +27554,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>25-222</t>
+          <t>25-223</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -27649,7 +27653,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>26-133</t>
+          <t>26-134</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -27744,7 +27748,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>29-108</t>
+          <t>29-109</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -27843,7 +27847,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>27-126</t>
+          <t>27-127</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -27942,7 +27946,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>29-177</t>
+          <t>29-178</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -28041,7 +28045,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>30-117</t>
+          <t>30-118</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -28140,7 +28144,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>26-150</t>
+          <t>26-151</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -28235,7 +28239,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>29-150</t>
+          <t>29-151</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -28330,7 +28334,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>25-055</t>
+          <t>25-056</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -28429,7 +28433,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>24-117</t>
+          <t>24-118</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -28528,7 +28532,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>28-032</t>
+          <t>28-033</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -28627,7 +28631,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>29-131</t>
+          <t>29-132</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -28722,7 +28726,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>23-040</t>
+          <t>23-041</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -28821,7 +28825,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>28-222</t>
+          <t>28-223</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -28916,7 +28920,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>26-349</t>
+          <t>26-350</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -29015,7 +29019,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>24-018</t>
+          <t>24-019</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -29114,7 +29118,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>21-056</t>
+          <t>21-057</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -29213,7 +29217,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>27-323</t>
+          <t>27-324</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -29312,7 +29316,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>32-176</t>
+          <t>32-177</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -29407,7 +29411,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>27-064</t>
+          <t>27-065</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -29502,7 +29506,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>26-270</t>
+          <t>26-271</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -29591,7 +29595,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>eng ENG</t>
+          <t>sct SCO</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -29601,7 +29605,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>26-033</t>
+          <t>26-034</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -29700,7 +29704,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>32-016</t>
+          <t>32-017</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -29795,7 +29799,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>23-019</t>
+          <t>23-020</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -29894,7 +29898,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>29-024</t>
+          <t>29-025</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -29993,7 +29997,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>27-201</t>
+          <t>27-202</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -30290,10 +30294,14 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 4_level_0</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Playing Time</t>
         </is>
       </c>
-      <c r="G1" s="1" t="n"/>
       <c r="H1" s="1" t="n"/>
       <c r="I1" s="1" t="n"/>
       <c r="J1" s="1" t="inlineStr">
@@ -30537,7 +30545,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>25-067</t>
+          <t>25-068</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -30654,7 +30662,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>22-040</t>
+          <t>22-041</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -30771,7 +30779,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>26-016</t>
+          <t>26-017</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -30888,7 +30896,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>21-141</t>
+          <t>21-142</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -31005,7 +31013,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>33-191</t>
+          <t>33-192</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -31122,7 +31130,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>24-189</t>
+          <t>24-190</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -31239,7 +31247,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>25-222</t>
+          <t>25-223</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -31356,7 +31364,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>26-133</t>
+          <t>26-134</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -31473,7 +31481,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>29-108</t>
+          <t>29-109</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -31590,7 +31598,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>27-126</t>
+          <t>27-127</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -31707,7 +31715,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>29-177</t>
+          <t>29-178</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -31824,7 +31832,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>30-117</t>
+          <t>30-118</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -31941,7 +31949,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>26-150</t>
+          <t>26-151</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -32058,7 +32066,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>29-150</t>
+          <t>29-151</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -32175,7 +32183,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>25-055</t>
+          <t>25-056</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -32292,7 +32300,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>24-117</t>
+          <t>24-118</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -32409,7 +32417,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>28-032</t>
+          <t>28-033</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -32526,7 +32534,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>29-131</t>
+          <t>29-132</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -32643,7 +32651,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>23-040</t>
+          <t>23-041</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -32760,7 +32768,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>28-222</t>
+          <t>28-223</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -32877,7 +32885,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>26-349</t>
+          <t>26-350</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -32994,7 +33002,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>24-018</t>
+          <t>24-019</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -33111,7 +33119,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>21-056</t>
+          <t>21-057</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -33228,7 +33236,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>27-323</t>
+          <t>27-324</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -33345,7 +33353,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>32-176</t>
+          <t>32-177</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -33462,7 +33470,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>27-064</t>
+          <t>27-065</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -33579,7 +33587,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>26-270</t>
+          <t>26-271</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -33686,7 +33694,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>eng ENG</t>
+          <t>sct SCO</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -33696,7 +33704,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>26-033</t>
+          <t>26-034</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -33813,7 +33821,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>32-016</t>
+          <t>32-017</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -33930,7 +33938,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>23-019</t>
+          <t>23-020</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -34047,7 +34055,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>29-024</t>
+          <t>29-025</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -34164,7 +34172,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>27-201</t>
+          <t>27-202</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -34281,7 +34289,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>22-186</t>
+          <t>22-187</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -34536,9 +34544,9 @@
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="Y1:AH1"/>
-    <mergeCell ref="F1:I1"/>
     <mergeCell ref="R1:U1"/>
     <mergeCell ref="J1:Q1"/>
+    <mergeCell ref="G1:I1"/>
     <mergeCell ref="V1:X1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Teams/Ipswich Town_stats.xlsx
+++ b/Teams/Ipswich Town_stats.xlsx
@@ -7,16 +7,16 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Matches" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Standard Stats" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Shooting Stats" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Passing Stats" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pass Types" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Goal &amp; Shot Creation" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Defensive Actions" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Possession" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Playing Time" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Miscellaneous Stats" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Standard Stats" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Shooting Stats" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Passing Stats" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pass Types" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Goal &amp; Shot Creation" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Defensive Actions" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Possession" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Playing Time" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Miscellaneous Stats" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet_9" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3866,7 +3866,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>25-071</t>
+          <t>25-074</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -3937,7 +3937,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>22-044</t>
+          <t>22-047</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -4008,7 +4008,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>26-020</t>
+          <t>26-023</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -4079,7 +4079,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>21-145</t>
+          <t>21-148</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -4150,7 +4150,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>33-195</t>
+          <t>33-198</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -4221,7 +4221,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>24-193</t>
+          <t>24-196</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -4292,7 +4292,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>25-226</t>
+          <t>25-229</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -4363,7 +4363,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>26-137</t>
+          <t>26-140</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -4434,7 +4434,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>29-112</t>
+          <t>29-115</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -4505,7 +4505,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>27-130</t>
+          <t>27-133</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -4576,7 +4576,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>29-181</t>
+          <t>29-184</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -4647,7 +4647,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>30-121</t>
+          <t>30-124</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -4718,7 +4718,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>26-154</t>
+          <t>26-157</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -4789,7 +4789,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>29-154</t>
+          <t>29-157</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -4860,7 +4860,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>25-059</t>
+          <t>25-062</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -4931,7 +4931,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>24-121</t>
+          <t>24-124</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -5002,7 +5002,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>28-036</t>
+          <t>28-039</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -5073,7 +5073,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>29-135</t>
+          <t>29-138</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -5144,7 +5144,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>23-044</t>
+          <t>23-047</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -5215,7 +5215,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>28-226</t>
+          <t>28-229</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -5286,7 +5286,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>26-353</t>
+          <t>26-356</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -5357,7 +5357,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>24-022</t>
+          <t>24-025</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -5428,7 +5428,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>21-060</t>
+          <t>21-063</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -5499,7 +5499,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>27-327</t>
+          <t>27-330</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -5570,7 +5570,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>32-180</t>
+          <t>32-183</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -5641,7 +5641,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>27-068</t>
+          <t>27-071</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -5712,7 +5712,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>26-274</t>
+          <t>26-277</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -5783,7 +5783,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>26-037</t>
+          <t>26-040</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -5854,7 +5854,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>32-020</t>
+          <t>32-023</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -5925,7 +5925,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>23-023</t>
+          <t>23-026</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -5996,7 +5996,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>29-028</t>
+          <t>29-031</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -6065,7 +6065,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>27-205</t>
+          <t>27-208</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -6510,7 +6510,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>25-071</t>
+          <t>25-074</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -6617,7 +6617,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>22-044</t>
+          <t>22-047</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -6724,7 +6724,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>26-020</t>
+          <t>26-023</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -6831,7 +6831,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>21-145</t>
+          <t>21-148</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -6938,7 +6938,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>33-195</t>
+          <t>33-198</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -7045,7 +7045,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>24-193</t>
+          <t>24-196</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -7152,7 +7152,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>25-226</t>
+          <t>25-229</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -7259,7 +7259,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>26-137</t>
+          <t>26-140</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -7366,7 +7366,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>29-112</t>
+          <t>29-115</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -7473,7 +7473,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>27-130</t>
+          <t>27-133</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -7580,7 +7580,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>29-181</t>
+          <t>29-184</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -7687,7 +7687,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>30-121</t>
+          <t>30-124</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -7794,7 +7794,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>26-154</t>
+          <t>26-157</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -7901,7 +7901,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>29-154</t>
+          <t>29-157</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>25-059</t>
+          <t>25-062</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -8115,7 +8115,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>24-121</t>
+          <t>24-124</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -8222,7 +8222,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>28-036</t>
+          <t>28-039</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -8329,7 +8329,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>29-135</t>
+          <t>29-138</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -8436,7 +8436,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>23-044</t>
+          <t>23-047</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -8543,7 +8543,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>28-226</t>
+          <t>28-229</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -8650,7 +8650,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>26-353</t>
+          <t>26-356</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -8757,7 +8757,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>24-022</t>
+          <t>24-025</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -8864,7 +8864,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>21-060</t>
+          <t>21-063</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -8971,7 +8971,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>27-327</t>
+          <t>27-330</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -9078,7 +9078,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>32-180</t>
+          <t>32-183</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -9185,7 +9185,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>27-068</t>
+          <t>27-071</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -9292,7 +9292,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>26-274</t>
+          <t>26-277</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -9399,7 +9399,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>26-037</t>
+          <t>26-040</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -9506,7 +9506,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>32-020</t>
+          <t>32-023</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -9613,7 +9613,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>23-023</t>
+          <t>23-026</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -9720,7 +9720,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>29-028</t>
+          <t>29-031</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -9827,7 +9827,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>27-205</t>
+          <t>27-208</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -9934,7 +9934,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>22-190</t>
+          <t>22-193</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>25-071</t>
+          <t>25-074</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -10434,7 +10434,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>22-044</t>
+          <t>22-047</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -10508,7 +10508,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>26-020</t>
+          <t>26-023</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -10582,7 +10582,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>21-145</t>
+          <t>21-148</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -10656,7 +10656,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>33-195</t>
+          <t>33-198</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -10730,7 +10730,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>24-193</t>
+          <t>24-196</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -10804,7 +10804,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>25-226</t>
+          <t>25-229</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -10878,7 +10878,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>26-137</t>
+          <t>26-140</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -10942,7 +10942,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>29-112</t>
+          <t>29-115</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -11016,7 +11016,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>27-130</t>
+          <t>27-133</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -11088,7 +11088,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>29-181</t>
+          <t>29-184</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -11162,7 +11162,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>30-121</t>
+          <t>30-124</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -11236,7 +11236,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>26-154</t>
+          <t>26-157</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -11308,7 +11308,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>29-154</t>
+          <t>29-157</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -11382,7 +11382,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>25-059</t>
+          <t>25-062</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -11456,7 +11456,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>24-121</t>
+          <t>24-124</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -11530,7 +11530,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>28-036</t>
+          <t>28-039</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -11604,7 +11604,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>29-135</t>
+          <t>29-138</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -11668,7 +11668,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>23-044</t>
+          <t>23-047</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -11742,7 +11742,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>28-226</t>
+          <t>28-229</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -11806,7 +11806,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>26-353</t>
+          <t>26-356</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -11880,7 +11880,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>24-022</t>
+          <t>24-025</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -11954,7 +11954,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>21-060</t>
+          <t>21-063</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -12028,7 +12028,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>27-327</t>
+          <t>27-330</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -12092,7 +12092,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>32-180</t>
+          <t>32-183</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -12156,7 +12156,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>27-068</t>
+          <t>27-071</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -12220,7 +12220,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>26-274</t>
+          <t>26-277</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -12294,7 +12294,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>26-037</t>
+          <t>26-040</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -12368,7 +12368,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>32-020</t>
+          <t>32-023</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -12432,7 +12432,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>23-023</t>
+          <t>23-026</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -12504,7 +12504,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>29-028</t>
+          <t>29-031</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -12568,7 +12568,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>27-205</t>
+          <t>27-208</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -12984,7 +12984,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>25-071</t>
+          <t>25-074</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -13076,7 +13076,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>22-044</t>
+          <t>22-047</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -13168,7 +13168,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>26-020</t>
+          <t>26-023</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -13260,7 +13260,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>21-145</t>
+          <t>21-148</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -13352,7 +13352,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>33-195</t>
+          <t>33-198</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -13444,7 +13444,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>24-193</t>
+          <t>24-196</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -13536,7 +13536,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>25-226</t>
+          <t>25-229</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -13628,7 +13628,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>26-137</t>
+          <t>26-140</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -13720,7 +13720,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>29-112</t>
+          <t>29-115</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -13812,7 +13812,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>27-130</t>
+          <t>27-133</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -13904,7 +13904,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>29-181</t>
+          <t>29-184</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -13996,7 +13996,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>30-121</t>
+          <t>30-124</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -14088,7 +14088,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>26-154</t>
+          <t>26-157</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -14180,7 +14180,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>29-154</t>
+          <t>29-157</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -14272,7 +14272,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>25-059</t>
+          <t>25-062</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -14364,7 +14364,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>24-121</t>
+          <t>24-124</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -14456,7 +14456,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>28-036</t>
+          <t>28-039</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -14548,7 +14548,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>29-135</t>
+          <t>29-138</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -14640,7 +14640,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>23-044</t>
+          <t>23-047</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -14732,7 +14732,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>28-226</t>
+          <t>28-229</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -14824,7 +14824,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>26-353</t>
+          <t>26-356</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -14916,7 +14916,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>24-022</t>
+          <t>24-025</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -15008,7 +15008,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>21-060</t>
+          <t>21-063</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -15100,7 +15100,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>27-327</t>
+          <t>27-330</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -15192,7 +15192,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>32-180</t>
+          <t>32-183</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -15284,7 +15284,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>27-068</t>
+          <t>27-071</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -15374,7 +15374,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>26-274</t>
+          <t>26-277</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -15466,7 +15466,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>26-037</t>
+          <t>26-040</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -15558,7 +15558,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>32-020</t>
+          <t>32-023</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -15650,7 +15650,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>23-023</t>
+          <t>23-026</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -15740,7 +15740,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>29-028</t>
+          <t>29-031</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -15832,7 +15832,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>27-205</t>
+          <t>27-208</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -16255,7 +16255,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>25-071</t>
+          <t>25-074</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -16323,7 +16323,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>22-044</t>
+          <t>22-047</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -16391,7 +16391,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>26-020</t>
+          <t>26-023</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -16459,7 +16459,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>21-145</t>
+          <t>21-148</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -16527,7 +16527,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>33-195</t>
+          <t>33-198</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -16595,7 +16595,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>24-193</t>
+          <t>24-196</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -16663,7 +16663,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>25-226</t>
+          <t>25-229</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -16731,7 +16731,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>26-137</t>
+          <t>26-140</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -16799,7 +16799,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>29-112</t>
+          <t>29-115</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -16867,7 +16867,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>27-130</t>
+          <t>27-133</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -16935,7 +16935,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>29-181</t>
+          <t>29-184</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -17003,7 +17003,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>30-121</t>
+          <t>30-124</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -17071,7 +17071,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>26-154</t>
+          <t>26-157</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -17139,7 +17139,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>29-154</t>
+          <t>29-157</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -17207,7 +17207,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>25-059</t>
+          <t>25-062</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -17275,7 +17275,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>24-121</t>
+          <t>24-124</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -17343,7 +17343,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>28-036</t>
+          <t>28-039</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -17411,7 +17411,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>29-135</t>
+          <t>29-138</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -17479,7 +17479,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>23-044</t>
+          <t>23-047</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -17547,7 +17547,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>28-226</t>
+          <t>28-229</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -17615,7 +17615,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>26-353</t>
+          <t>26-356</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -17683,7 +17683,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>24-022</t>
+          <t>24-025</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -17751,7 +17751,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>21-060</t>
+          <t>21-063</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -17819,7 +17819,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>27-327</t>
+          <t>27-330</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -17887,7 +17887,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>32-180</t>
+          <t>32-183</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -17955,7 +17955,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>27-068</t>
+          <t>27-071</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -18023,7 +18023,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>26-274</t>
+          <t>26-277</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -18091,7 +18091,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>26-037</t>
+          <t>26-040</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -18159,7 +18159,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>32-020</t>
+          <t>32-023</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -18227,7 +18227,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>23-023</t>
+          <t>23-026</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -18295,7 +18295,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>29-028</t>
+          <t>29-031</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -18363,7 +18363,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>27-205</t>
+          <t>27-208</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -18726,7 +18726,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>25-071</t>
+          <t>25-074</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -18797,7 +18797,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>22-044</t>
+          <t>22-047</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -18868,7 +18868,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>26-020</t>
+          <t>26-023</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -18939,7 +18939,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>21-145</t>
+          <t>21-148</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -19010,7 +19010,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>33-195</t>
+          <t>33-198</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -19081,7 +19081,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>24-193</t>
+          <t>24-196</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -19152,7 +19152,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>25-226</t>
+          <t>25-229</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -19223,7 +19223,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>26-137</t>
+          <t>26-140</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -19294,7 +19294,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>29-112</t>
+          <t>29-115</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -19365,7 +19365,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>27-130</t>
+          <t>27-133</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -19436,7 +19436,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>29-181</t>
+          <t>29-184</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -19507,7 +19507,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>30-121</t>
+          <t>30-124</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -19578,7 +19578,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>26-154</t>
+          <t>26-157</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -19649,7 +19649,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>29-154</t>
+          <t>29-157</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -19720,7 +19720,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>25-059</t>
+          <t>25-062</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -19791,7 +19791,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>24-121</t>
+          <t>24-124</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -19862,7 +19862,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>28-036</t>
+          <t>28-039</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -19933,7 +19933,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>29-135</t>
+          <t>29-138</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -20004,7 +20004,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>23-044</t>
+          <t>23-047</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -20075,7 +20075,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>28-226</t>
+          <t>28-229</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -20146,7 +20146,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>26-353</t>
+          <t>26-356</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -20217,7 +20217,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>24-022</t>
+          <t>24-025</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -20288,7 +20288,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>21-060</t>
+          <t>21-063</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -20359,7 +20359,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>27-327</t>
+          <t>27-330</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -20430,7 +20430,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>32-180</t>
+          <t>32-183</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -20501,7 +20501,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>27-068</t>
+          <t>27-071</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -20572,7 +20572,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>26-274</t>
+          <t>26-277</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -20643,7 +20643,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>26-037</t>
+          <t>26-040</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -20714,7 +20714,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>32-020</t>
+          <t>32-023</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -20785,7 +20785,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>23-023</t>
+          <t>23-026</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -20856,7 +20856,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>29-028</t>
+          <t>29-031</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -20927,7 +20927,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>27-205</t>
+          <t>27-208</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -21296,7 +21296,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>25-071</t>
+          <t>25-074</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -21367,7 +21367,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>22-044</t>
+          <t>22-047</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -21438,7 +21438,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>26-020</t>
+          <t>26-023</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -21509,7 +21509,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>21-145</t>
+          <t>21-148</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -21580,7 +21580,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>33-195</t>
+          <t>33-198</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -21651,7 +21651,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>24-193</t>
+          <t>24-196</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -21722,7 +21722,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>25-226</t>
+          <t>25-229</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -21793,7 +21793,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>26-137</t>
+          <t>26-140</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -21864,7 +21864,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>29-112</t>
+          <t>29-115</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -21935,7 +21935,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>27-130</t>
+          <t>27-133</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -22006,7 +22006,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>29-181</t>
+          <t>29-184</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -22077,7 +22077,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>30-121</t>
+          <t>30-124</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -22148,7 +22148,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>26-154</t>
+          <t>26-157</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -22219,7 +22219,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>29-154</t>
+          <t>29-157</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -22290,7 +22290,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>25-059</t>
+          <t>25-062</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -22361,7 +22361,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>24-121</t>
+          <t>24-124</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -22432,7 +22432,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>28-036</t>
+          <t>28-039</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -22503,7 +22503,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>29-135</t>
+          <t>29-138</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -22574,7 +22574,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>23-044</t>
+          <t>23-047</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -22645,7 +22645,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>28-226</t>
+          <t>28-229</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -22714,7 +22714,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>26-353</t>
+          <t>26-356</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -22785,7 +22785,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>24-022</t>
+          <t>24-025</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -22856,7 +22856,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>21-060</t>
+          <t>21-063</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -22927,7 +22927,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>27-327</t>
+          <t>27-330</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -22998,7 +22998,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>32-180</t>
+          <t>32-183</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -23069,7 +23069,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>27-068</t>
+          <t>27-071</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -23138,7 +23138,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>26-274</t>
+          <t>26-277</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -23209,7 +23209,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>26-037</t>
+          <t>26-040</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -23280,7 +23280,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>32-020</t>
+          <t>32-023</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -23351,7 +23351,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>23-023</t>
+          <t>23-026</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -23422,7 +23422,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>29-028</t>
+          <t>29-031</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -23493,7 +23493,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>27-205</t>
+          <t>27-208</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -23899,7 +23899,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>25-071</t>
+          <t>25-074</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -23988,7 +23988,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>22-044</t>
+          <t>22-047</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -24077,7 +24077,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>26-020</t>
+          <t>26-023</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -24166,7 +24166,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>21-145</t>
+          <t>21-148</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -24255,7 +24255,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>33-195</t>
+          <t>33-198</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -24344,7 +24344,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>24-193</t>
+          <t>24-196</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -24433,7 +24433,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>25-226</t>
+          <t>25-229</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -24522,7 +24522,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>26-137</t>
+          <t>26-140</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -24607,7 +24607,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>29-112</t>
+          <t>29-115</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -24696,7 +24696,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>27-130</t>
+          <t>27-133</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -24785,7 +24785,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>29-181</t>
+          <t>29-184</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -24874,7 +24874,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>30-121</t>
+          <t>30-124</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -24963,7 +24963,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>26-154</t>
+          <t>26-157</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -25048,7 +25048,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>29-154</t>
+          <t>29-157</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -25133,7 +25133,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>25-059</t>
+          <t>25-062</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -25222,7 +25222,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>24-121</t>
+          <t>24-124</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -25311,7 +25311,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>28-036</t>
+          <t>28-039</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -25400,7 +25400,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>29-135</t>
+          <t>29-138</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -25485,7 +25485,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>23-044</t>
+          <t>23-047</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -25574,7 +25574,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>28-226</t>
+          <t>28-229</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -25659,7 +25659,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>26-353</t>
+          <t>26-356</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -25748,7 +25748,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>24-022</t>
+          <t>24-025</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -25837,7 +25837,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>21-060</t>
+          <t>21-063</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -25926,7 +25926,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>27-327</t>
+          <t>27-330</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -26015,7 +26015,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>32-180</t>
+          <t>32-183</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -26100,7 +26100,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>27-068</t>
+          <t>27-071</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -26185,7 +26185,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>26-274</t>
+          <t>26-277</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -26274,7 +26274,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>26-037</t>
+          <t>26-040</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -26363,7 +26363,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>32-020</t>
+          <t>32-023</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -26448,7 +26448,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>23-023</t>
+          <t>23-026</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -26537,7 +26537,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>29-028</t>
+          <t>29-031</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -26626,7 +26626,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>27-205</t>
+          <t>27-208</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -27125,7 +27125,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>25-071</t>
+          <t>25-074</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -27232,7 +27232,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>22-044</t>
+          <t>22-047</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -27339,7 +27339,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>26-020</t>
+          <t>26-023</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -27446,7 +27446,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>21-145</t>
+          <t>21-148</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -27553,7 +27553,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>33-195</t>
+          <t>33-198</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -27660,7 +27660,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>24-193</t>
+          <t>24-196</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -27767,7 +27767,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>25-226</t>
+          <t>25-229</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -27874,7 +27874,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>26-137</t>
+          <t>26-140</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -27981,7 +27981,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>29-112</t>
+          <t>29-115</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -28088,7 +28088,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>27-130</t>
+          <t>27-133</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -28195,7 +28195,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>29-181</t>
+          <t>29-184</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -28302,7 +28302,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>30-121</t>
+          <t>30-124</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -28409,7 +28409,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>26-154</t>
+          <t>26-157</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -28516,7 +28516,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>29-154</t>
+          <t>29-157</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -28623,7 +28623,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>25-059</t>
+          <t>25-062</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -28730,7 +28730,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>24-121</t>
+          <t>24-124</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -28837,7 +28837,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>28-036</t>
+          <t>28-039</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -28944,7 +28944,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>29-135</t>
+          <t>29-138</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -29051,7 +29051,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>23-044</t>
+          <t>23-047</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -29158,7 +29158,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>28-226</t>
+          <t>28-229</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -29265,7 +29265,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>26-353</t>
+          <t>26-356</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -29372,7 +29372,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>24-022</t>
+          <t>24-025</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -29479,7 +29479,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>21-060</t>
+          <t>21-063</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -29586,7 +29586,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>27-327</t>
+          <t>27-330</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -29693,7 +29693,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>32-180</t>
+          <t>32-183</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -29800,7 +29800,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>27-068</t>
+          <t>27-071</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -29907,7 +29907,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>26-274</t>
+          <t>26-277</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -30014,7 +30014,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>26-037</t>
+          <t>26-040</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -30121,7 +30121,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>32-020</t>
+          <t>32-023</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -30228,7 +30228,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>23-023</t>
+          <t>23-026</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -30335,7 +30335,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>29-028</t>
+          <t>29-031</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -30442,7 +30442,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>27-205</t>
+          <t>27-208</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -30549,7 +30549,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>22-190</t>
+          <t>22-193</t>
         </is>
       </c>
       <c r="E36" t="n">
